--- a/Org/Semester 2/Sprint_5.xlsx
+++ b/Org/Semester 2/Sprint_5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee58e90f1ffcc7c2/Studium/FHTechnikum/3. Semester/9_InnoLab/LocalRep/Org/Semester 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F9FA437BF5258C0A9193D0740D8736DE96423140" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AB504A-7303-430F-9C22-BCC24BF366FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="13896"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -80,18 +83,12 @@
     <t>short description [opt]</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
     <t>Mentor</t>
   </si>
   <si>
-    <t>fill out the orange fields</t>
-  </si>
-  <si>
     <t>Estimate [h]</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Delta [h]</t>
   </si>
   <si>
-    <t>Transfer your estimate as well as your real effort from your planing tool to this protocol</t>
-  </si>
-  <si>
     <t>Marcel Gössl</t>
   </si>
   <si>
@@ -119,32 +113,38 @@
     <t>Lilly Treml</t>
   </si>
   <si>
-    <t>Clean-up des Codes und Verschönerung der Scene</t>
-  </si>
-  <si>
-    <t>Herzsegmente zusammen bauen</t>
-  </si>
-  <si>
-    <t>Überprüfung der "Kanten" in Herzsegmenten + Lösungsfindung</t>
-  </si>
-  <si>
-    <t>Bestehende Funktionen auf Segmente anwenden (Innenansicht, Rotation und Zoom mittels Handtracking)</t>
-  </si>
-  <si>
-    <t>Einfärbung des Herzens: Untersuchen einer Möglichkeit zur Automatisierung</t>
-  </si>
-  <si>
-    <t>grau = noch nicht fix geplant</t>
-  </si>
-  <si>
-    <t>Main prio: Items von letzten Sprint vervollständigen, lieber flüssigen Workflow zuerst einbauen (Hauptziel für nächsten Sprint: Beta Version wo man mit Grundstruktur arbeiten kann flüssig)</t>
+    <t>Handtracking slider auf 2D Darstellung anwenden + adaptieren (Akzeptanzkriterium: Slider kann mit Handtracking verwendet werden und funktioniert für alle 3 Schnittebenen (transversal, sattigal, coronal)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Testen der derzeitigen Implementierungen und Behebung von potentiellen Bugs</t>
+  </si>
+  <si>
+    <t>Beta Version des Projektes erstellen (Akzeptanzkriterien: Grundlegenden Funktionen sind vorhanden, um eine Demo für Stakeholder zu ermöglichen)</t>
+  </si>
+  <si>
+    <t>Herzsegmente zusammen bauen (Akzeptanzkriterium: Segmente wirken in VR Ansicht wie das Gesamtherz)</t>
+  </si>
+  <si>
+    <t>Herz konnte nicht komplett zusammen gebaut werden, da nicht alle Teile des Herzens segmentiert wurden, Lösungsplan wurde bereits erarbeitet</t>
+  </si>
+  <si>
+    <t>Überprüfung der "Kanten" in Herzsegmenten + Lösungsfindung (Akzeptanzkriterium: Für BenutzerInnen erscheint das Herz natürlicher durch weniger Kanten)</t>
+  </si>
+  <si>
+    <t>Vor der Endabgabe in diesem Semester wird erneut getestet, um potentielle Bugs zu finden und zu beheben</t>
+  </si>
+  <si>
+    <t>Erweiterung der Einfärbung für Gesamtherz und Segmente (Akzeptanzkriterium: transfer functions wurden optimiert, um realistischere Farben zu erzeugen)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,20 +193,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="6" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,52 +425,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -492,6 +472,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,71 +514,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 10" xfId="1"/>
-    <cellStyle name="Standard 2" xfId="2"/>
-    <cellStyle name="Standard 2 2" xfId="7"/>
-    <cellStyle name="Standard 3" xfId="14"/>
-    <cellStyle name="Standard 4" xfId="9"/>
-    <cellStyle name="Standard 5" xfId="8"/>
-    <cellStyle name="Standard 6" xfId="10"/>
-    <cellStyle name="Standard 7" xfId="11"/>
-    <cellStyle name="Standard 8" xfId="12"/>
-    <cellStyle name="Standard 9" xfId="13"/>
+    <cellStyle name="Standard 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Standard 3" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Standard 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Standard 7" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Standard 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Standard 9" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -882,188 +841,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" customWidth="1"/>
-    <col min="2" max="2" width="65.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="2"/>
-    <col min="8" max="8" width="34.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="65.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32">
+      <c r="B4" s="15"/>
+      <c r="C4" s="18">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20">
+        <v>45804.708333333336</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="21">
+        <v>16</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="34">
-        <v>45804.708333333336</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="35">
+      <c r="B7" s="17"/>
+      <c r="C7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="28" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1071,13 +1030,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1089,207 +1048,191 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="41" t="s">
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ref="E16:E18" si="0">D16-C16</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8">
+        <f>D19-C19</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8">
+        <f>D20-C20</f>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>2</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="40">
-        <v>3</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>3</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="40">
-        <v>10</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="C21" s="5">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:E22" si="1">D21-C21</f>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f>COUNT(A16:A22)</f>
+        <v>6</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2">
+        <f>SUM(C16:C21)</f>
+        <v>36</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(D16:D21)</f>
+        <v>40</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUM(E16:E22)</f>
         <v>4</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="40">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>5</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="40">
-        <v>10</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>6</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22:E25" si="0">D22-C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <f>COUNT(A16:A25)</f>
-        <v>7</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <f>SUM(E16:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <f>COUNT(F16:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <f>COUNT(G16:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
-        <f>SUM(C16:C22)</f>
-        <v>33</v>
-      </c>
-      <c r="D27" s="2">
-        <f>SUM(D16:D21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1304,14 +1247,8 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>